--- a/outputs-HGR-r202-archive/f__Peptoniphilaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Peptoniphilaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,59 +583,59 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46257.fa</t>
+          <t>even_MAG-GUT47840.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.134525327934517</v>
+        <v>0.002128955069187773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.30307959779584</v>
+        <v>2.884368018219164e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2110986996115297</v>
+        <v>0.9926253869066943</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01271881159507997</v>
+        <v>0.0002318820314145452</v>
       </c>
       <c r="F3" t="n">
-        <v>8.311234504280552e-14</v>
+        <v>2.22028685969334e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02497944816906872</v>
+        <v>0.00283471577611792</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002640457791980843</v>
+        <v>1.136072549169427e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>8.311234504280556e-14</v>
+        <v>2.22028685969334e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>8.311234504280556e-14</v>
+        <v>2.22028685969334e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002213858898566256</v>
+        <v>1.795538279463149e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09353334456624574</v>
+        <v>0.002113297343875105</v>
       </c>
       <c r="M3" t="n">
-        <v>0.215625831138881</v>
+        <v>3.879748315285884e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001961034510823753</v>
+        <v>1.092475770173163e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.30307959779584</v>
+        <v>0.9926253869066943</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>g__Ezakiella</t>
+          <t>g__Fenollaria</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>g__Ezakiella(reject)</t>
+          <t>g__Fenollaria</t>
         </is>
       </c>
     </row>
@@ -701,50 +701,50 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7066.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7347187139283728</v>
+        <v>0.7312153239712396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2344939759423483</v>
+        <v>0.04371230977155079</v>
       </c>
       <c r="D5" t="n">
-        <v>1.472093899594111e-05</v>
+        <v>4.403331657834807e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01125079461297547</v>
+        <v>0.07037544759369332</v>
       </c>
       <c r="F5" t="n">
-        <v>2.223073366906846e-14</v>
+        <v>6.276127602520476e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003927020463143439</v>
+        <v>0.02003777797342363</v>
       </c>
       <c r="H5" t="n">
-        <v>4.497064839998991e-05</v>
+        <v>0.0002906417970133319</v>
       </c>
       <c r="I5" t="n">
-        <v>2.223073366906846e-14</v>
+        <v>6.276127602520472e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.223073366906846e-14</v>
+        <v>6.276127602520472e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002281983259848024</v>
+        <v>0.02670007922926321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00380108695104447</v>
+        <v>0.07058264724870372</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008936969666688749</v>
+        <v>0.03112526995981559</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005297635881160351</v>
+        <v>0.005916469138530498</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7347187139283728</v>
+        <v>0.7312153239712396</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -760,109 +760,109 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91256.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003964139812613548</v>
+        <v>0.8424465234678435</v>
       </c>
       <c r="C6" t="n">
-        <v>7.630037483268974e-06</v>
+        <v>0.0002259659329396396</v>
       </c>
       <c r="D6" t="n">
-        <v>8.904527650208722e-07</v>
+        <v>1.811583084658021e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001595620383121524</v>
+        <v>0.03380488686197823</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220295376730079e-14</v>
+        <v>3.76558110959485e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004205554150421521</v>
+        <v>0.01276822636079955</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003175017496848924</v>
+        <v>0.00080575934966557</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220295376730079e-14</v>
+        <v>3.76558110959485e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220295376730079e-14</v>
+        <v>3.76558110959485e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008670147407215806</v>
+        <v>0.07351893887462946</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9812398988648945</v>
+        <v>0.02278223068749314</v>
       </c>
       <c r="M6" t="n">
-        <v>3.196457623362376e-05</v>
+        <v>0.003734819065349844</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003534378396851786</v>
+        <v>0.00989453356834148</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9812398988648945</v>
+        <v>0.8424465234678435</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>g__Peptoniphilus_A</t>
+          <t>g__Anaerococcus</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>g__Peptoniphilus_A</t>
+          <t>g__Anaerococcus</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91291.fa</t>
+          <t>even_MAG-GUT91256.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003835460830238558</v>
+        <v>0.0003964139812613548</v>
       </c>
       <c r="C7" t="n">
-        <v>7.448656938903593e-05</v>
+        <v>7.630037483268974e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003324225578362673</v>
+        <v>8.904527650208722e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002052420769840596</v>
+        <v>0.001595620383121524</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220057606210968e-14</v>
+        <v>2.220295376730079e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006851916614838984</v>
+        <v>0.004205554150421521</v>
       </c>
       <c r="H7" t="n">
-        <v>4.602408547077245e-05</v>
+        <v>0.0003175017496848924</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220057606210968e-14</v>
+        <v>2.220295376730079e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220057606210968e-14</v>
+        <v>2.220295376730079e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004110835217260299</v>
+        <v>0.008670147407215806</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9836877822335476</v>
+        <v>0.9812398988648945</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002358505238309923</v>
+        <v>3.196457623362376e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003801812325950353</v>
+        <v>0.003534378396851786</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9836877822335476</v>
+        <v>0.9812398988648945</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -878,50 +878,50 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91631.fa</t>
+          <t>even_MAG-GUT91291.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001442121249585902</v>
+        <v>0.0003835460830238558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000137275826429169</v>
+        <v>7.448656938903593e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009147206300656676</v>
+        <v>0.0003324225578362673</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002865220252745373</v>
+        <v>0.002052420769840596</v>
       </c>
       <c r="F8" t="n">
-        <v>4.52473973676655e-14</v>
+        <v>2.220057606210968e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01497551538441981</v>
+        <v>0.006851916614838984</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001464987316253332</v>
+        <v>4.602408547077245e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>4.524739736766633e-14</v>
+        <v>2.220057606210968e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>4.524739736766627e-14</v>
+        <v>2.220057606210968e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002191617570845978</v>
+        <v>0.0004110835217260299</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9476964095595592</v>
+        <v>0.9836877822335476</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003093019361650661</v>
+        <v>0.002358505238309923</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01830511576234602</v>
+        <v>0.003801812325950353</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9476964095595592</v>
+        <v>0.9836877822335476</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -937,116 +937,175 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91672.fa</t>
+          <t>even_MAG-GUT91328.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00146909967817452</v>
+        <v>0.5347617402372367</v>
       </c>
       <c r="C9" t="n">
-        <v>2.609752242150503e-05</v>
+        <v>0.001064837127594029</v>
       </c>
       <c r="D9" t="n">
-        <v>5.218458131864881e-07</v>
+        <v>0.0003099261727542438</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002454492137544975</v>
+        <v>0.05588100135301438</v>
       </c>
       <c r="F9" t="n">
-        <v>2.722059842679771e-14</v>
+        <v>1.127164823491758e-13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006635920093821569</v>
+        <v>0.03681116754575632</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001214640584467936</v>
+        <v>0.002365986204945783</v>
       </c>
       <c r="I9" t="n">
-        <v>2.722059842679773e-14</v>
+        <v>1.127164823491758e-13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.72205984267977e-14</v>
+        <v>1.127164823491758e-13</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02911580679341148</v>
+        <v>0.1390495590006426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9462993410575473</v>
+        <v>0.1970557140393906</v>
       </c>
       <c r="M9" t="n">
-        <v>4.243539665185686e-05</v>
+        <v>0.005752349389228893</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01274164489006397</v>
+        <v>0.02694771892909861</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9462993410575473</v>
+        <v>0.5347617402372367</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>g__Peptoniphilus_A</t>
+          <t>g__Anaerococcus</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>g__Peptoniphilus_A</t>
+          <t>g__Anaerococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91672.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.00146909967817452</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.609752242150503e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.218458131864881e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002454492137544975</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.722059842679771e-14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.006635920093821569</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001214640584467936</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.722059842679773e-14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.72205984267977e-14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02911580679341148</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9462993410575473</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.243539665185686e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01274164489006397</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9462993410575473</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>g__Peptoniphilus_A</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>g__Peptoniphilus_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91675.fa</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>0.002413487586914751</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>1.172355136776727e-05</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>2.593640260629962e-07</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>0.004327063184864447</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>4.211629435226421e-14</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.009785633746628346</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.001944334709166353</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>4.211629435226423e-14</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>4.211629435226421e-14</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>0.05756883998352685</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.9075829925404758</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>6.310910974378769e-05</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>0.01630255622315954</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>0.9075829925404758</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>g__Peptoniphilus_A</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>g__Peptoniphilus_A</t>
         </is>
